--- a/tests/WebVella.Tefter.Tests/FileResults/result-TemplatePlacement3.xlsx
+++ b/tests/WebVella.Tefter.Tests/FileResults/result-TemplatePlacement3.xlsx
@@ -60,7 +60,7 @@
       <x:scheme val="minor"/>
     </x:font>
   </x:fonts>
-  <x:fills count="6">
+  <x:fills count="7">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -75,6 +75,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor theme="4" tint="0.7999816888943144"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.7999816888943144"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -124,7 +129,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -134,17 +139,20 @@
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="2" fontId="3" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="3" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -154,10 +162,14 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -165,7 +177,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -481,43 +493,32 @@
     <x:row r="1" spans="1:6" ht="28.8" customHeight="1">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="2"/>
-      <x:c r="C1" s="2"/>
-      <x:c r="D1" s="3"/>
-      <x:c r="E1" s="4"/>
-      <x:c r="F1" s="5"/>
+      <x:c r="C1" s="3"/>
+      <x:c r="D1" s="4"/>
+      <x:c r="E1" s="5"/>
+      <x:c r="F1" s="6"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="28.8" customHeight="1">
       <x:c r="A2" s="1"/>
       <x:c r="B2" s="2"/>
-      <x:c r="C2" s="2"/>
-      <x:c r="D2" s="3"/>
+      <x:c r="D2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="28.8" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="2"/>
-      <x:c r="C3" s="2"/>
-      <x:c r="D3" s="3"/>
+      <x:c r="D3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:6" ht="28.8" customHeight="1">
       <x:c r="A4" s="1"/>
       <x:c r="B4" s="2"/>
-      <x:c r="C4" s="2"/>
-      <x:c r="D4" s="3"/>
+      <x:c r="D4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:6" ht="28.8" customHeight="1">
       <x:c r="A5" s="1"/>
       <x:c r="B5" s="2"/>
-      <x:c r="C5" s="2"/>
-      <x:c r="D5" s="3"/>
+      <x:c r="D5" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="5">
-    <x:mergeCell ref="B1:C1"/>
-    <x:mergeCell ref="B2:C2"/>
-    <x:mergeCell ref="B3:C3"/>
-    <x:mergeCell ref="B4:C4"/>
-    <x:mergeCell ref="B5:C5"/>
-  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
